--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H2">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I2">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J2">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>372.837695541086</v>
+        <v>172.9633770663423</v>
       </c>
       <c r="R2">
-        <v>3355.539259869774</v>
+        <v>1556.670393597081</v>
       </c>
       <c r="S2">
-        <v>0.01580111499845991</v>
+        <v>0.01004594103741469</v>
       </c>
       <c r="T2">
-        <v>0.01734842569407953</v>
+        <v>0.01045625588880307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H3">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I3">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J3">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>89.16350324870167</v>
+        <v>50.696100454085</v>
       </c>
       <c r="R3">
-        <v>802.471529238315</v>
+        <v>456.264904086765</v>
       </c>
       <c r="S3">
-        <v>0.003778809882551248</v>
+        <v>0.002944496370426701</v>
       </c>
       <c r="T3">
-        <v>0.004148846614044851</v>
+        <v>0.003064760921666411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H4">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I4">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J4">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>13.210194906277</v>
+        <v>7.695150239828999</v>
       </c>
       <c r="R4">
-        <v>118.891754156493</v>
+        <v>69.256352158461</v>
       </c>
       <c r="S4">
-        <v>0.0005598570406439762</v>
+        <v>0.0004469444739953145</v>
       </c>
       <c r="T4">
-        <v>0.000614680563356823</v>
+        <v>0.0004651994044934376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H5">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I5">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J5">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>39.99149396518116</v>
+        <v>5.3210297986185</v>
       </c>
       <c r="R5">
-        <v>239.948963791087</v>
+        <v>31.926178791711</v>
       </c>
       <c r="S5">
-        <v>0.001694866701144514</v>
+        <v>0.0003090524278717381</v>
       </c>
       <c r="T5">
-        <v>0.001240556717212304</v>
+        <v>0.0002144502114069332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H6">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I6">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J6">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>9.144218931534889</v>
+        <v>11.83802602156267</v>
       </c>
       <c r="R6">
-        <v>82.29797038381399</v>
+        <v>106.542234194064</v>
       </c>
       <c r="S6">
-        <v>0.0003875382147145435</v>
+        <v>0.0006875681628625027</v>
       </c>
       <c r="T6">
-        <v>0.0004254875635198392</v>
+        <v>0.0007156510898390395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J7">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>12911.39164103988</v>
+        <v>10534.64644919593</v>
       </c>
       <c r="R7">
-        <v>116202.5247693589</v>
+        <v>94811.81804276342</v>
       </c>
       <c r="S7">
-        <v>0.5471935551316676</v>
+        <v>0.6118661584529522</v>
       </c>
       <c r="T7">
-        <v>0.6007770168374948</v>
+        <v>0.6368571245496251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J8">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
         <v>3087.737437225565</v>
@@ -948,10 +948,10 @@
         <v>27789.63693503009</v>
       </c>
       <c r="S8">
-        <v>0.130860411686228</v>
+        <v>0.1793398623425821</v>
       </c>
       <c r="T8">
-        <v>0.1436748057751908</v>
+        <v>0.1866647917534805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J9">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>457.469837758443</v>
+        <v>468.687004873581</v>
       </c>
       <c r="R9">
-        <v>4117.228539825987</v>
+        <v>4218.183043862229</v>
       </c>
       <c r="S9">
-        <v>0.0193878827200062</v>
+        <v>0.0272219593293239</v>
       </c>
       <c r="T9">
-        <v>0.0212864245824639</v>
+        <v>0.02833380879719482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J10">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>1384.907822009206</v>
+        <v>324.0869172702465</v>
       </c>
       <c r="R10">
-        <v>8309.446932055233</v>
+        <v>1944.521503621479</v>
       </c>
       <c r="S10">
-        <v>0.05869333498072389</v>
+        <v>0.01882339554832813</v>
       </c>
       <c r="T10">
-        <v>0.04296055313185395</v>
+        <v>0.01306147692329595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J11">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>316.6648471665807</v>
+        <v>721.0163267436108</v>
       </c>
       <c r="R11">
-        <v>2849.983624499226</v>
+        <v>6489.146940692497</v>
       </c>
       <c r="S11">
-        <v>0.01342047149708734</v>
+        <v>0.04187757910567033</v>
       </c>
       <c r="T11">
-        <v>0.0147346597103701</v>
+        <v>0.04358802042552804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H12">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I12">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J12">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N12">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O12">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P12">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q12">
-        <v>81.727067222738</v>
+        <v>61.4107958138391</v>
       </c>
       <c r="R12">
-        <v>735.543605004642</v>
+        <v>552.697162324552</v>
       </c>
       <c r="S12">
-        <v>0.003463648668354778</v>
+        <v>0.0035668200070464</v>
       </c>
       <c r="T12">
-        <v>0.00380282350702511</v>
+        <v>0.003712502647992598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H13">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I13">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J13">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P13">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q13">
-        <v>19.54488966907167</v>
+        <v>17.99969407598667</v>
       </c>
       <c r="R13">
-        <v>175.904007021645</v>
+        <v>161.99724668388</v>
       </c>
       <c r="S13">
-        <v>0.0008283257111248288</v>
+        <v>0.001045445969232592</v>
       </c>
       <c r="T13">
-        <v>0.0009094387991825446</v>
+        <v>0.001088146001604138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H14">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I14">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J14">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N14">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O14">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P14">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q14">
-        <v>2.895711726691</v>
+        <v>2.732169712168</v>
       </c>
       <c r="R14">
-        <v>26.061405540219</v>
+        <v>24.589527409512</v>
       </c>
       <c r="S14">
-        <v>0.0001227222315314178</v>
+        <v>0.0001586880199622967</v>
       </c>
       <c r="T14">
-        <v>0.0001347397012768995</v>
+        <v>0.0001651694487388987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H15">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I15">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J15">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N15">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O15">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P15">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q15">
-        <v>8.766247497820167</v>
+        <v>1.889236207252</v>
       </c>
       <c r="R15">
-        <v>52.597484986921</v>
+        <v>11.335417243512</v>
       </c>
       <c r="S15">
-        <v>0.0003715195284022821</v>
+        <v>0.0001097293303687222</v>
       </c>
       <c r="T15">
-        <v>0.0002719335073512075</v>
+        <v>7.614073203424127E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H16">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I16">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J16">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N16">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O16">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P16">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q16">
-        <v>2.004438403773555</v>
+        <v>4.203101322254223</v>
       </c>
       <c r="R16">
-        <v>18.039945633962</v>
+        <v>37.827911900288</v>
       </c>
       <c r="S16">
-        <v>8.49494622033601E-05</v>
+        <v>0.0002441216676837318</v>
       </c>
       <c r="T16">
-        <v>9.326806576185613E-05</v>
+        <v>0.0002540925350642269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H17">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I17">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J17">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N17">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O17">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P17">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q17">
-        <v>3293.333036802612</v>
+        <v>1162.40594951225</v>
       </c>
       <c r="R17">
-        <v>19759.99822081567</v>
+        <v>6974.435697073502</v>
       </c>
       <c r="S17">
-        <v>0.1395736929637008</v>
+        <v>0.06751407048360913</v>
       </c>
       <c r="T17">
-        <v>0.1021608851217161</v>
+        <v>0.04684773644347925</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H18">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I18">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J18">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>146.311485</v>
       </c>
       <c r="O18">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P18">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q18">
-        <v>787.5950163779701</v>
+        <v>340.704776840105</v>
       </c>
       <c r="R18">
-        <v>4725.57009826782</v>
+        <v>2044.22866104063</v>
       </c>
       <c r="S18">
-        <v>0.03337881221463247</v>
+        <v>0.01978858274713498</v>
       </c>
       <c r="T18">
-        <v>0.02443160260182591</v>
+        <v>0.01373121635960057</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H19">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I19">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J19">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N19">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O19">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P19">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q19">
-        <v>116.687695015134</v>
+        <v>51.715505171577</v>
       </c>
       <c r="R19">
-        <v>700.1261700908041</v>
+        <v>310.293031029462</v>
       </c>
       <c r="S19">
-        <v>0.00494530384102797</v>
+        <v>0.003003704740770088</v>
       </c>
       <c r="T19">
-        <v>0.00361971233165431</v>
+        <v>0.002084258392978824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H20">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I20">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J20">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N20">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O20">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P20">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q20">
-        <v>353.251052245359</v>
+        <v>35.7601522377405</v>
       </c>
       <c r="R20">
-        <v>1413.004208981436</v>
+        <v>143.040608950962</v>
       </c>
       <c r="S20">
-        <v>0.0149710197402526</v>
+        <v>0.002076996801071485</v>
       </c>
       <c r="T20">
-        <v>0.007305352918412109</v>
+        <v>0.0009608130377718249</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H21">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I21">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J21">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N21">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O21">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P21">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q21">
-        <v>80.772300288132</v>
+        <v>79.55783537151467</v>
       </c>
       <c r="R21">
-        <v>484.633801728792</v>
+        <v>477.347012229088</v>
       </c>
       <c r="S21">
-        <v>0.003423184996599319</v>
+        <v>0.004620823996168997</v>
       </c>
       <c r="T21">
-        <v>0.002505598309839925</v>
+        <v>0.003206370807945655</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H22">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I22">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J22">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N22">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O22">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P22">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q22">
-        <v>118.433574109922</v>
+        <v>51.62368734196878</v>
       </c>
       <c r="R22">
-        <v>1065.902166989298</v>
+        <v>464.613186077719</v>
       </c>
       <c r="S22">
-        <v>0.005019295383943492</v>
+        <v>0.002998371840140646</v>
       </c>
       <c r="T22">
-        <v>0.005510805599064823</v>
+        <v>0.003120836872675919</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H23">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I23">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J23">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>146.311485</v>
       </c>
       <c r="O23">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P23">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q23">
-        <v>28.32318860511167</v>
+        <v>15.13106233058167</v>
       </c>
       <c r="R23">
-        <v>254.908697446005</v>
+        <v>136.179560975235</v>
       </c>
       <c r="S23">
-        <v>0.001200355987671641</v>
+        <v>0.0008788320544190468</v>
       </c>
       <c r="T23">
-        <v>0.001317899822929875</v>
+        <v>0.0009147269339988993</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H24">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I24">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J24">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N24">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O24">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P24">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q24">
-        <v>4.196277941179</v>
+        <v>2.296740713371</v>
       </c>
       <c r="R24">
-        <v>37.766501470611</v>
+        <v>20.670666420339</v>
       </c>
       <c r="S24">
-        <v>0.0001778411118485287</v>
+        <v>0.0001333977294852707</v>
       </c>
       <c r="T24">
-        <v>0.0001952560508899149</v>
+        <v>0.0001388462055758075</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H25">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I25">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J25">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N25">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O25">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P25">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q25">
-        <v>12.70347827200817</v>
+        <v>1.5881464811815</v>
       </c>
       <c r="R25">
-        <v>76.220869632049</v>
+        <v>9.528878887089</v>
       </c>
       <c r="S25">
-        <v>0.0005383820452090469</v>
+        <v>9.224164201308024E-05</v>
       </c>
       <c r="T25">
-        <v>0.0003940684315525018</v>
+        <v>6.400609685045818E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H26">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I26">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J26">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N26">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O26">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P26">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q26">
-        <v>2.904702350264222</v>
+        <v>3.533248277459556</v>
       </c>
       <c r="R26">
-        <v>26.142321152378</v>
+        <v>31.799234497136</v>
       </c>
       <c r="S26">
-        <v>0.0001231032602704303</v>
+        <v>0.0002052157194658105</v>
       </c>
       <c r="T26">
-        <v>0.0001351580419298668</v>
+        <v>0.0002135975183556877</v>
       </c>
     </row>
   </sheetData>
